--- a/gitlab-to-azure.xlsx
+++ b/gitlab-to-azure.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\varsharma\Desktop\version control excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vhegde\Desktop\New folder\github-gitlab-DEMO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DD4DD0-D2B7-4CE5-9186-993405AEC98E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923AD9DE-812C-4407-B850-82B575A2F545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,19 +39,19 @@
     <t>azure_target_namespace</t>
   </si>
   <si>
-    <t>repository1699/python</t>
-  </si>
-  <si>
-    <t>devops-TEKsystems/test</t>
-  </si>
-  <si>
-    <t>Python-MiniProjects</t>
-  </si>
-  <si>
-    <t>repository1699/terraform</t>
-  </si>
-  <si>
-    <t>training</t>
+    <t>TEK009/vth</t>
+  </si>
+  <si>
+    <t>vth1/kafka</t>
+  </si>
+  <si>
+    <t>vth1/python3</t>
+  </si>
+  <si>
+    <t>ec2-github-runner</t>
+  </si>
+  <si>
+    <t>the-example-app.nodejs</t>
   </si>
 </sst>
 </file>
@@ -384,14 +384,14 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.5546875" customWidth="1"/>
-    <col min="3" max="3" width="25.109375" customWidth="1"/>
-    <col min="4" max="4" width="33.77734375" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -405,32 +405,32 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/gitlab-to-azure.xlsx
+++ b/gitlab-to-azure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vhegde\Desktop\New folder\github-gitlab-DEMO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923AD9DE-812C-4407-B850-82B575A2F545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E824F0-2739-400B-AB6F-9FA8B8F4B86C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,16 +42,16 @@
     <t>TEK009/vth</t>
   </si>
   <si>
-    <t>vth1/kafka</t>
-  </si>
-  <si>
     <t>vth1/python3</t>
   </si>
   <si>
-    <t>ec2-github-runner</t>
-  </si>
-  <si>
     <t>the-example-app.nodejs</t>
+  </si>
+  <si>
+    <t>vth1/vth1</t>
+  </si>
+  <si>
+    <t>pre-commit</t>
   </si>
 </sst>
 </file>
@@ -381,7 +381,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,10 +410,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -424,10 +424,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>

--- a/gitlab-to-azure.xlsx
+++ b/gitlab-to-azure.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\varsharma\Desktop\version control excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vhegde\Desktop\New folder\SCM-Migration-DEMO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B4E45B-EC7D-455C-B9C9-E25A57816EAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99299BC1-8F81-42F1-829E-C0B05075C632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,19 +39,19 @@
     <t>azure_target_namespace</t>
   </si>
   <si>
-    <t>repository1699/python</t>
-  </si>
-  <si>
-    <t>devops-TEKsystems/test</t>
-  </si>
-  <si>
-    <t>Python-MiniProjects</t>
-  </si>
-  <si>
-    <t>varun1699</t>
-  </si>
-  <si>
-    <t>test-private</t>
+    <t>vth1/kafka</t>
+  </si>
+  <si>
+    <t>ec2-github-runner</t>
+  </si>
+  <si>
+    <t>vth1/python3</t>
+  </si>
+  <si>
+    <t>the-example-app.nodejs</t>
+  </si>
+  <si>
+    <t>TEK009/vth</t>
   </si>
 </sst>
 </file>
@@ -381,17 +381,17 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.5546875" customWidth="1"/>
-    <col min="3" max="3" width="25.109375" customWidth="1"/>
-    <col min="4" max="4" width="33.77734375" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -405,7 +405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -413,24 +413,24 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/gitlab-to-azure.xlsx
+++ b/gitlab-to-azure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vhegde\Desktop\New folder\SCM-Migration-DEMO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99299BC1-8F81-42F1-829E-C0B05075C632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77ACD588-C20F-4323-AA75-4C09E83F30CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>sr</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>TEK009/vth</t>
+  </si>
+  <si>
+    <t>test/test</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -378,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -433,6 +439,20 @@
         <v>8</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
